--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Serpinf1-Plxdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Serpinf1-Plxdc1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>5.018448999999999</v>
+        <v>4.237284666666667</v>
       </c>
       <c r="H2">
-        <v>15.055347</v>
+        <v>12.711854</v>
       </c>
       <c r="I2">
-        <v>0.007216928732731273</v>
+        <v>0.005927002683330217</v>
       </c>
       <c r="J2">
-        <v>0.007216928732731273</v>
+        <v>0.005927002683330217</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.05751</v>
+        <v>1.983226</v>
       </c>
       <c r="N2">
-        <v>9.17253</v>
+        <v>5.949678</v>
       </c>
       <c r="O2">
-        <v>0.1256743542537804</v>
+        <v>0.1365336095668656</v>
       </c>
       <c r="P2">
-        <v>0.1256743542537804</v>
+        <v>0.1365336095668656</v>
       </c>
       <c r="Q2">
-        <v>15.34395800199</v>
+        <v>8.403493120334668</v>
       </c>
       <c r="R2">
-        <v>138.09562201791</v>
+        <v>75.631438083012</v>
       </c>
       <c r="S2">
-        <v>0.0009069828581815565</v>
+        <v>0.0008092350702675725</v>
       </c>
       <c r="T2">
-        <v>0.0009069828581815563</v>
+        <v>0.0008092350702675723</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>5.018448999999999</v>
+        <v>4.237284666666667</v>
       </c>
       <c r="H3">
-        <v>15.055347</v>
+        <v>12.711854</v>
       </c>
       <c r="I3">
-        <v>0.007216928732731273</v>
+        <v>0.005927002683330217</v>
       </c>
       <c r="J3">
-        <v>0.007216928732731273</v>
+        <v>0.005927002683330217</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>5.867738</v>
       </c>
       <c r="O3">
-        <v>0.08039485115670036</v>
+        <v>0.1346532449542077</v>
       </c>
       <c r="P3">
-        <v>0.08039485115670036</v>
+        <v>0.1346532449542077</v>
       </c>
       <c r="Q3">
-        <v>9.815647966120666</v>
+        <v>8.287758751805777</v>
       </c>
       <c r="R3">
-        <v>88.34083169508598</v>
+        <v>74.589828766252</v>
       </c>
       <c r="S3">
-        <v>0.0005802039112764449</v>
+        <v>0.00079809014416271</v>
       </c>
       <c r="T3">
-        <v>0.0005802039112764449</v>
+        <v>0.00079809014416271</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>5.018448999999999</v>
+        <v>4.237284666666667</v>
       </c>
       <c r="H4">
-        <v>15.055347</v>
+        <v>12.711854</v>
       </c>
       <c r="I4">
-        <v>0.007216928732731273</v>
+        <v>0.005927002683330217</v>
       </c>
       <c r="J4">
-        <v>0.007216928732731273</v>
+        <v>0.005927002683330217</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.738501</v>
+        <v>6.154832333333332</v>
       </c>
       <c r="N4">
-        <v>47.215503</v>
+        <v>18.464497</v>
       </c>
       <c r="O4">
-        <v>0.6469074345128804</v>
+        <v>0.4237245148807314</v>
       </c>
       <c r="P4">
-        <v>0.6469074345128804</v>
+        <v>0.4237245148807314</v>
       </c>
       <c r="Q4">
-        <v>78.98286460494899</v>
+        <v>26.07977667193755</v>
       </c>
       <c r="R4">
-        <v>710.8457814445409</v>
+        <v>234.717990047438</v>
       </c>
       <c r="S4">
-        <v>0.004668684851553481</v>
+        <v>0.002511416336690889</v>
       </c>
       <c r="T4">
-        <v>0.004668684851553481</v>
+        <v>0.002511416336690889</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>5.018448999999999</v>
+        <v>4.237284666666667</v>
       </c>
       <c r="H5">
-        <v>15.055347</v>
+        <v>12.711854</v>
       </c>
       <c r="I5">
-        <v>0.007216928732731273</v>
+        <v>0.005927002683330217</v>
       </c>
       <c r="J5">
-        <v>0.007216928732731273</v>
+        <v>0.005927002683330217</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.576906333333334</v>
+        <v>4.431580666666667</v>
       </c>
       <c r="N5">
-        <v>10.730719</v>
+        <v>13.294742</v>
       </c>
       <c r="O5">
-        <v>0.1470233600766389</v>
+        <v>0.3050886305981953</v>
       </c>
       <c r="P5">
-        <v>0.1470233600766389</v>
+        <v>0.3050886305981953</v>
       </c>
       <c r="Q5">
-        <v>17.95052201161033</v>
+        <v>18.77786880796311</v>
       </c>
       <c r="R5">
-        <v>161.554698104493</v>
+        <v>169.000819271668</v>
       </c>
       <c r="S5">
-        <v>0.001061057111719791</v>
+        <v>0.001808261132209045</v>
       </c>
       <c r="T5">
-        <v>0.001061057111719791</v>
+        <v>0.001808261132209045</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>2026.483642</v>
       </c>
       <c r="I6">
-        <v>0.9714148748852961</v>
+        <v>0.9448640602589355</v>
       </c>
       <c r="J6">
-        <v>0.9714148748852962</v>
+        <v>0.9448640602589357</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.05751</v>
+        <v>1.983226</v>
       </c>
       <c r="N6">
-        <v>9.17253</v>
+        <v>5.949678</v>
       </c>
       <c r="O6">
-        <v>0.1256743542537804</v>
+        <v>0.1365336095668656</v>
       </c>
       <c r="P6">
-        <v>0.1256743542537804</v>
+        <v>0.1365336095668656</v>
       </c>
       <c r="Q6">
-        <v>2065.33133341714</v>
+        <v>1339.658349129697</v>
       </c>
       <c r="R6">
-        <v>18587.98200075426</v>
+        <v>12056.92514216728</v>
       </c>
       <c r="S6">
-        <v>0.1220819371137265</v>
+        <v>0.1290057006971569</v>
       </c>
       <c r="T6">
-        <v>0.1220819371137265</v>
+        <v>0.1290057006971569</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>2026.483642</v>
       </c>
       <c r="I7">
-        <v>0.9714148748852961</v>
+        <v>0.9448640602589355</v>
       </c>
       <c r="J7">
-        <v>0.9714148748852962</v>
+        <v>0.9448640602589357</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>5.867738</v>
       </c>
       <c r="O7">
-        <v>0.08039485115670036</v>
+        <v>0.1346532449542077</v>
       </c>
       <c r="P7">
-        <v>0.08039485115670036</v>
+        <v>0.1346532449542077</v>
       </c>
       <c r="Q7">
         <v>1321.208341393533</v>
@@ -883,10 +883,10 @@
         <v>11890.8750725418</v>
       </c>
       <c r="S7">
-        <v>0.07809675427780809</v>
+        <v>0.1272290117544737</v>
       </c>
       <c r="T7">
-        <v>0.0780967542778081</v>
+        <v>0.1272290117544737</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>2026.483642</v>
       </c>
       <c r="I8">
-        <v>0.9714148748852961</v>
+        <v>0.9448640602589355</v>
       </c>
       <c r="J8">
-        <v>0.9714148748852962</v>
+        <v>0.9448640602589357</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>15.738501</v>
+        <v>6.154832333333332</v>
       </c>
       <c r="N8">
-        <v>47.215503</v>
+        <v>18.464497</v>
       </c>
       <c r="O8">
-        <v>0.6469074345128804</v>
+        <v>0.4237245148807314</v>
       </c>
       <c r="P8">
-        <v>0.6469074345128804</v>
+        <v>0.4237245148807314</v>
       </c>
       <c r="Q8">
-        <v>10631.27160870021</v>
+        <v>4157.555680917563</v>
       </c>
       <c r="R8">
-        <v>95681.44447830193</v>
+        <v>37418.00112825807</v>
       </c>
       <c r="S8">
-        <v>0.6284155045596975</v>
+        <v>0.4003620655614556</v>
       </c>
       <c r="T8">
-        <v>0.6284155045596976</v>
+        <v>0.4003620655614556</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>2026.483642</v>
       </c>
       <c r="I9">
-        <v>0.9714148748852961</v>
+        <v>0.9448640602589355</v>
       </c>
       <c r="J9">
-        <v>0.9714148748852962</v>
+        <v>0.9448640602589357</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.576906333333334</v>
+        <v>4.431580666666667</v>
       </c>
       <c r="N9">
-        <v>10.730719</v>
+        <v>13.294742</v>
       </c>
       <c r="O9">
-        <v>0.1470233600766389</v>
+        <v>0.3050886305981953</v>
       </c>
       <c r="P9">
-        <v>0.1470233600766389</v>
+        <v>0.3050886305981953</v>
       </c>
       <c r="Q9">
-        <v>2416.180724488733</v>
+        <v>2993.508576401152</v>
       </c>
       <c r="R9">
-        <v>21745.6265203986</v>
+        <v>26941.57718761037</v>
       </c>
       <c r="S9">
-        <v>0.142820678934064</v>
+        <v>0.2882672822458494</v>
       </c>
       <c r="T9">
-        <v>0.142820678934064</v>
+        <v>0.2882672822458494</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.02608766666667</v>
+        <v>32.27539233333334</v>
       </c>
       <c r="H10">
-        <v>39.078263</v>
+        <v>96.826177</v>
       </c>
       <c r="I10">
-        <v>0.0187325499086756</v>
+        <v>0.04514597248329053</v>
       </c>
       <c r="J10">
-        <v>0.0187325499086756</v>
+        <v>0.04514597248329053</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.05751</v>
+        <v>1.983226</v>
       </c>
       <c r="N10">
-        <v>9.17253</v>
+        <v>5.949678</v>
       </c>
       <c r="O10">
-        <v>0.1256743542537804</v>
+        <v>0.1365336095668656</v>
       </c>
       <c r="P10">
-        <v>0.1256743542537804</v>
+        <v>0.1365336095668656</v>
       </c>
       <c r="Q10">
-        <v>39.82739330171</v>
+        <v>64.00939723566735</v>
       </c>
       <c r="R10">
-        <v>358.44653971539</v>
+        <v>576.0845751210061</v>
       </c>
       <c r="S10">
-        <v>0.002354201113299519</v>
+        <v>0.006163942580550046</v>
       </c>
       <c r="T10">
-        <v>0.002354201113299518</v>
+        <v>0.006163942580550044</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.02608766666667</v>
+        <v>32.27539233333334</v>
       </c>
       <c r="H11">
-        <v>39.078263</v>
+        <v>96.826177</v>
       </c>
       <c r="I11">
-        <v>0.0187325499086756</v>
+        <v>0.04514597248329053</v>
       </c>
       <c r="J11">
-        <v>0.0187325499086756</v>
+        <v>0.04514597248329053</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>5.867738</v>
       </c>
       <c r="O11">
-        <v>0.08039485115670036</v>
+        <v>0.1346532449542077</v>
       </c>
       <c r="P11">
-        <v>0.08039485115670036</v>
+        <v>0.1346532449542077</v>
       </c>
       <c r="Q11">
-        <v>25.47788986434378</v>
+        <v>63.12784868640289</v>
       </c>
       <c r="R11">
-        <v>229.301008779094</v>
+        <v>568.150638177626</v>
       </c>
       <c r="S11">
-        <v>0.001506000561693436</v>
+        <v>0.006079051691488439</v>
       </c>
       <c r="T11">
-        <v>0.001506000561693436</v>
+        <v>0.006079051691488439</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.02608766666667</v>
+        <v>32.27539233333334</v>
       </c>
       <c r="H12">
-        <v>39.078263</v>
+        <v>96.826177</v>
       </c>
       <c r="I12">
-        <v>0.0187325499086756</v>
+        <v>0.04514597248329053</v>
       </c>
       <c r="J12">
-        <v>0.0187325499086756</v>
+        <v>0.04514597248329053</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.738501</v>
+        <v>6.154832333333332</v>
       </c>
       <c r="N12">
-        <v>47.215503</v>
+        <v>18.464497</v>
       </c>
       <c r="O12">
-        <v>0.6469074345128804</v>
+        <v>0.4237245148807314</v>
       </c>
       <c r="P12">
-        <v>0.6469074345128804</v>
+        <v>0.4237245148807314</v>
       </c>
       <c r="Q12">
-        <v>205.011093767921</v>
+        <v>198.6496283042188</v>
       </c>
       <c r="R12">
-        <v>1845.099843911289</v>
+        <v>1787.846654737969</v>
       </c>
       <c r="S12">
-        <v>0.01211822580330582</v>
+        <v>0.01912945528930112</v>
       </c>
       <c r="T12">
-        <v>0.01211822580330582</v>
+        <v>0.01912945528930112</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.02608766666667</v>
+        <v>32.27539233333334</v>
       </c>
       <c r="H13">
-        <v>39.078263</v>
+        <v>96.826177</v>
       </c>
       <c r="I13">
-        <v>0.0187325499086756</v>
+        <v>0.04514597248329053</v>
       </c>
       <c r="J13">
-        <v>0.0187325499086756</v>
+        <v>0.04514597248329053</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.576906333333334</v>
+        <v>4.431580666666667</v>
       </c>
       <c r="N13">
-        <v>10.730719</v>
+        <v>13.294742</v>
       </c>
       <c r="O13">
-        <v>0.1470233600766389</v>
+        <v>0.3050886305981953</v>
       </c>
       <c r="P13">
-        <v>0.1470233600766389</v>
+        <v>0.3050886305981953</v>
       </c>
       <c r="Q13">
-        <v>46.59309547345523</v>
+        <v>143.0310046734816</v>
       </c>
       <c r="R13">
-        <v>419.337859261097</v>
+        <v>1287.279042061334</v>
       </c>
       <c r="S13">
-        <v>0.00275412243037682</v>
+        <v>0.01377352292195091</v>
       </c>
       <c r="T13">
-        <v>0.00275412243037682</v>
+        <v>0.01377352292195091</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.832754333333333</v>
+        <v>2.904661666666667</v>
       </c>
       <c r="H14">
-        <v>5.498263</v>
+        <v>8.713985000000001</v>
       </c>
       <c r="I14">
-        <v>0.002635646473297045</v>
+        <v>0.004062964574443608</v>
       </c>
       <c r="J14">
-        <v>0.002635646473297045</v>
+        <v>0.004062964574443608</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.05751</v>
+        <v>1.983226</v>
       </c>
       <c r="N14">
-        <v>9.17253</v>
+        <v>5.949678</v>
       </c>
       <c r="O14">
-        <v>0.1256743542537804</v>
+        <v>0.1365336095668656</v>
       </c>
       <c r="P14">
-        <v>0.1256743542537804</v>
+        <v>0.1365336095668656</v>
       </c>
       <c r="Q14">
-        <v>5.60366470171</v>
+        <v>5.760600538536668</v>
       </c>
       <c r="R14">
-        <v>50.43298231539</v>
+        <v>51.84540484683001</v>
       </c>
       <c r="S14">
-        <v>0.0003312331685728598</v>
+        <v>0.0005547312188910898</v>
       </c>
       <c r="T14">
-        <v>0.0003312331685728598</v>
+        <v>0.0005547312188910896</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.832754333333333</v>
+        <v>2.904661666666667</v>
       </c>
       <c r="H15">
-        <v>5.498263</v>
+        <v>8.713985000000001</v>
       </c>
       <c r="I15">
-        <v>0.002635646473297045</v>
+        <v>0.004062964574443608</v>
       </c>
       <c r="J15">
-        <v>0.002635646473297045</v>
+        <v>0.004062964574443608</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>5.867738</v>
       </c>
       <c r="O15">
-        <v>0.08039485115670036</v>
+        <v>0.1346532449542077</v>
       </c>
       <c r="P15">
-        <v>0.08039485115670036</v>
+        <v>0.1346532449542077</v>
       </c>
       <c r="Q15">
-        <v>3.584707415454889</v>
+        <v>5.681264546214445</v>
       </c>
       <c r="R15">
-        <v>32.262366739094</v>
+        <v>51.13138091593001</v>
       </c>
       <c r="S15">
-        <v>0.0002118924059223982</v>
+        <v>0.0005470913640828233</v>
       </c>
       <c r="T15">
-        <v>0.0002118924059223982</v>
+        <v>0.0005470913640828233</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.832754333333333</v>
+        <v>2.904661666666667</v>
       </c>
       <c r="H16">
-        <v>5.498263</v>
+        <v>8.713985000000001</v>
       </c>
       <c r="I16">
-        <v>0.002635646473297045</v>
+        <v>0.004062964574443608</v>
       </c>
       <c r="J16">
-        <v>0.002635646473297045</v>
+        <v>0.004062964574443608</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>15.738501</v>
+        <v>6.154832333333332</v>
       </c>
       <c r="N16">
-        <v>47.215503</v>
+        <v>18.464497</v>
       </c>
       <c r="O16">
-        <v>0.6469074345128804</v>
+        <v>0.4237245148807314</v>
       </c>
       <c r="P16">
-        <v>0.6469074345128804</v>
+        <v>0.4237245148807314</v>
       </c>
       <c r="Q16">
-        <v>28.844805907921</v>
+        <v>17.87770554339389</v>
       </c>
       <c r="R16">
-        <v>259.603253171289</v>
+        <v>160.899349890545</v>
       </c>
       <c r="S16">
-        <v>0.001705019298323512</v>
+        <v>0.001721577693283715</v>
       </c>
       <c r="T16">
-        <v>0.001705019298323512</v>
+        <v>0.001721577693283715</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.832754333333333</v>
+        <v>2.904661666666667</v>
       </c>
       <c r="H17">
-        <v>5.498263</v>
+        <v>8.713985000000001</v>
       </c>
       <c r="I17">
-        <v>0.002635646473297045</v>
+        <v>0.004062964574443608</v>
       </c>
       <c r="J17">
-        <v>0.002635646473297045</v>
+        <v>0.004062964574443608</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.576906333333334</v>
+        <v>4.431580666666667</v>
       </c>
       <c r="N17">
-        <v>10.730719</v>
+        <v>13.294742</v>
       </c>
       <c r="O17">
-        <v>0.1470233600766389</v>
+        <v>0.3050886305981953</v>
       </c>
       <c r="P17">
-        <v>0.1470233600766389</v>
+        <v>0.3050886305981953</v>
       </c>
       <c r="Q17">
-        <v>6.555590582344111</v>
+        <v>12.87224248520778</v>
       </c>
       <c r="R17">
-        <v>59.000315241097</v>
+        <v>115.85018236687</v>
       </c>
       <c r="S17">
-        <v>0.0003875016004782748</v>
+        <v>0.00123956429818598</v>
       </c>
       <c r="T17">
-        <v>0.0003875016004782748</v>
+        <v>0.00123956429818598</v>
       </c>
     </row>
   </sheetData>
